--- a/www.eia.gov/outlooks/steo/xls/Fig4.xlsx
+++ b/www.eia.gov/outlooks/steo/xls/Fig4.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Change the confidence interval by entering a</t>
@@ -80,10 +80,10 @@
     <t>Upper</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
-    <t>Note: Confidence interval derived from options market information for the 5 trading days ending Jan 5, 2017. Intervals not calculated for months with sparse trading in near-the-money options contracts.</t>
+    <t>Note: Confidence interval derived from options market information for the 5 trading days ending Feb 2, 2017. Intervals not calculated for months with sparse trading in near-the-money options contracts.</t>
   </si>
   <si>
     <t>Where:</t>
@@ -544,7 +544,7 @@
                   <c:v>3.5910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3039999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>#N/A</c:v>
@@ -793,79 +793,79 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5910000000000002</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6</c:v>
+                  <c:v>3.3039999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6965870000000001</c:v>
+                  <c:v>3.396442</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6457199999999998</c:v>
+                  <c:v>3.391829</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5478930000000002</c:v>
+                  <c:v>3.3921079999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4823580000000001</c:v>
+                  <c:v>3.3653439999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4858319999999998</c:v>
+                  <c:v>3.3925429999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4910640000000002</c:v>
+                  <c:v>3.4185180000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4659439999999999</c:v>
+                  <c:v>3.4078780000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4491589999999999</c:v>
+                  <c:v>3.4012039999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4728509999999999</c:v>
+                  <c:v>3.4319829999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5769839999999999</c:v>
+                  <c:v>3.541833</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7328420000000002</c:v>
+                  <c:v>3.7011829999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.7943210000000001</c:v>
+                  <c:v>3.7680950000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8092220000000001</c:v>
+                  <c:v>3.7978770000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7772779999999999</c:v>
+                  <c:v>3.7623609999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.744936</c:v>
+                  <c:v>3.7322829999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.685594</c:v>
+                  <c:v>3.659484</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.687252</c:v>
+                  <c:v>3.6556410000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.6848269999999999</c:v>
+                  <c:v>3.6506789999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.6501950000000001</c:v>
+                  <c:v>3.6112289999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.6255799999999998</c:v>
+                  <c:v>3.5828129999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.641235</c:v>
+                  <c:v>3.5963470000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.7387739999999998</c:v>
+                  <c:v>3.6935959999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8897529999999998</c:v>
+                  <c:v>3.8444530000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,73 +1051,73 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4786000000000001</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4544000000000006</c:v>
+                  <c:v>3.2124000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3777999999999997</c:v>
+                  <c:v>3.2549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3649999999999998</c:v>
+                  <c:v>3.2920000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3883999999999999</c:v>
+                  <c:v>3.339</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4164000000000003</c:v>
+                  <c:v>3.38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4094000000000002</c:v>
+                  <c:v>3.3835999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3881999999999999</c:v>
+                  <c:v>3.3637999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.407</c:v>
+                  <c:v>3.3780000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.4468000000000005</c:v>
+                  <c:v>3.4246000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.5528</c:v>
+                  <c:v>3.5442</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.6347999999999998</c:v>
+                  <c:v>3.6261999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5902000000000003</c:v>
+                  <c:v>3.5905999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.4912000000000001</c:v>
+                  <c:v>3.4974000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.9327999999999999</c:v>
+                  <c:v>2.9485999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8723999999999998</c:v>
+                  <c:v>2.8917999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8902000000000001</c:v>
+                  <c:v>2.9068000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9095999999999997</c:v>
+                  <c:v>2.9247999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.9020000000000001</c:v>
+                  <c:v>2.9217999999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.8795999999999999</c:v>
+                  <c:v>2.9005999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.8972000000000002</c:v>
+                  <c:v>2.9156000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.9421999999999997</c:v>
+                  <c:v>2.9585999999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0684</c:v>
+                  <c:v>3.0924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,73 +1321,73 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7722178214455853</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4846151161581025</c:v>
+                  <c:v>2.6242854448383217</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3900205333838089</c:v>
+                  <c:v>2.4172043947401085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3245041725905304</c:v>
+                  <c:v>2.3113733981364666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2582096620265211</c:v>
+                  <c:v>2.2216935826733586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2156439627764515</c:v>
+                  <c:v>2.1603266061960245</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1527250236739723</c:v>
+                  <c:v>2.0905442820853879</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0634886953055758</c:v>
+                  <c:v>2.0044135838226884</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0235690432291458</c:v>
+                  <c:v>1.9579774274063857</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9767646237439922</c:v>
+                  <c:v>1.9252535336395231</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9664734616097805</c:v>
+                  <c:v>1.9254608125178405</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9175227418083234</c:v>
+                  <c:v>1.8655104341548852</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7848346024218833</c:v>
+                  <c:v>1.7458427445629714</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6647938205738579</c:v>
+                  <c:v>1.7410154541384768</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6838287406862913</c:v>
+                  <c:v>1.6770310309189105</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6745804092042156</c:v>
+                  <c:v>1.6589248329101196</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6679241272904681</c:v>
+                  <c:v>1.6534634745021979</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.661698412810682</c:v>
+                  <c:v>1.6484147575634835</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6356675360442887</c:v>
+                  <c:v>1.6242906302883657</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.595442218381236</c:v>
+                  <c:v>1.5840907200641814</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5822474681502556</c:v>
+                  <c:v>1.5710866708515947</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5964963764580855</c:v>
+                  <c:v>1.5742290598151498</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.6581785048867819</c:v>
+                  <c:v>1.6477405276966748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,73 +1591,73 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3649737283955776</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8027073820799711</c:v>
+                  <c:v>3.9323137581307468</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7738220992797489</c:v>
+                  <c:v>4.3831729840699509</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8712431380068866</c:v>
+                  <c:v>4.688668654202516</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0842287822365897</c:v>
+                  <c:v>5.018208220498404</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2678991553200349</c:v>
+                  <c:v>5.288274452221124</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.399671686893738</c:v>
+                  <c:v>5.4764441289803667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.5633448664471485</c:v>
+                  <c:v>5.6451176200973814</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7362258228050829</c:v>
+                  <c:v>5.8278935396693052</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0100378655595668</c:v>
+                  <c:v>6.0916055756196759</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.4187938898840526</c:v>
+                  <c:v>6.5238168226202795</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.8900205207165435</c:v>
+                  <c:v>7.048648026435143</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.2216977542400258</c:v>
+                  <c:v>7.3846332381026061</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3213134800071558</c:v>
+                  <c:v>7.0256738565556178</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.1081892309869303</c:v>
+                  <c:v>5.1843059548135413</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.9270143820211301</c:v>
+                  <c:v>5.0409199224116259</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.0081750742282329</c:v>
+                  <c:v>5.110174110464615</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.0946502053164728</c:v>
+                  <c:v>5.189504037590825</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.1487260182267072</c:v>
+                  <c:v>5.25578063482667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.1973653852618416</c:v>
+                  <c:v>5.3112364421016975</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.3049652528835018</c:v>
+                  <c:v>5.4107284580246962</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.4222113921767914</c:v>
+                  <c:v>5.5603813850494133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.6779644243686835</c:v>
+                  <c:v>5.8036672639033355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,11 +1673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="673159312"/>
-        <c:axId val="673156512"/>
+        <c:axId val="625599072"/>
+        <c:axId val="625613632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="673159312"/>
+        <c:axId val="625599072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1694,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673156512"/>
+        <c:crossAx val="625613632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1705,7 +1705,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="673156512"/>
+        <c:axId val="625613632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1732,7 +1732,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673159312"/>
+        <c:crossAx val="625599072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,7 +2026,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2072,7 +2072,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Note: Confidence interval derived from options market information for the 5 trading days ending Jan 5, 2017. Intervals not calculated for months with sparse trading in near-the-money options contracts.</a:t>
+            <a:t>Note: Confidence interval derived from options market information for the 5 trading days ending Feb 2, 2017. Intervals not calculated for months with sparse trading in near-the-money options contracts.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2360,8 +2360,8 @@
           <cell r="C40">
             <v>3.5910000000000002</v>
           </cell>
-          <cell r="D40">
-            <v>3.5910000000000002</v>
+          <cell r="D40" t="e">
+            <v>#N/A</v>
           </cell>
           <cell r="E40" t="e">
             <v>#N/A</v>
@@ -2377,11 +2377,11 @@
           <cell r="B41">
             <v>42736</v>
           </cell>
-          <cell r="C41" t="e">
-            <v>#N/A</v>
+          <cell r="C41">
+            <v>3.3039999999999998</v>
           </cell>
           <cell r="D41">
-            <v>3.6</v>
+            <v>3.3039999999999998</v>
           </cell>
           <cell r="E41" t="e">
             <v>#N/A</v>
@@ -2401,16 +2401,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D42">
-            <v>3.6965870000000001</v>
-          </cell>
-          <cell r="E42">
-            <v>3.4786000000000001</v>
-          </cell>
-          <cell r="H42">
-            <v>2.7722178214455853</v>
-          </cell>
-          <cell r="I42">
-            <v>4.3649737283955776</v>
+            <v>3.396442</v>
+          </cell>
+          <cell r="E42" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="H42" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="I42" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="43">
@@ -2421,16 +2421,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D43">
-            <v>3.6457199999999998</v>
+            <v>3.391829</v>
           </cell>
           <cell r="E43">
-            <v>3.4544000000000006</v>
+            <v>3.2124000000000001</v>
           </cell>
           <cell r="H43">
-            <v>2.4846151161581025</v>
+            <v>2.6242854448383217</v>
           </cell>
           <cell r="I43">
-            <v>4.8027073820799711</v>
+            <v>3.9323137581307468</v>
           </cell>
         </row>
         <row r="44">
@@ -2441,16 +2441,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D44">
-            <v>3.5478930000000002</v>
+            <v>3.3921079999999999</v>
           </cell>
           <cell r="E44">
-            <v>3.3777999999999997</v>
+            <v>3.2549999999999999</v>
           </cell>
           <cell r="H44">
-            <v>2.3900205333838089</v>
+            <v>2.4172043947401085</v>
           </cell>
           <cell r="I44">
-            <v>4.7738220992797489</v>
+            <v>4.3831729840699509</v>
           </cell>
         </row>
         <row r="45">
@@ -2461,16 +2461,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D45">
-            <v>3.4823580000000001</v>
+            <v>3.3653439999999999</v>
           </cell>
           <cell r="E45">
-            <v>3.3649999999999998</v>
+            <v>3.2920000000000003</v>
           </cell>
           <cell r="H45">
-            <v>2.3245041725905304</v>
+            <v>2.3113733981364666</v>
           </cell>
           <cell r="I45">
-            <v>4.8712431380068866</v>
+            <v>4.688668654202516</v>
           </cell>
         </row>
         <row r="46">
@@ -2481,16 +2481,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D46">
-            <v>3.4858319999999998</v>
+            <v>3.3925429999999999</v>
           </cell>
           <cell r="E46">
-            <v>3.3883999999999999</v>
+            <v>3.339</v>
           </cell>
           <cell r="H46">
-            <v>2.2582096620265211</v>
+            <v>2.2216935826733586</v>
           </cell>
           <cell r="I46">
-            <v>5.0842287822365897</v>
+            <v>5.018208220498404</v>
           </cell>
         </row>
         <row r="47">
@@ -2501,16 +2501,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D47">
-            <v>3.4910640000000002</v>
+            <v>3.4185180000000002</v>
           </cell>
           <cell r="E47">
-            <v>3.4164000000000003</v>
+            <v>3.38</v>
           </cell>
           <cell r="H47">
-            <v>2.2156439627764515</v>
+            <v>2.1603266061960245</v>
           </cell>
           <cell r="I47">
-            <v>5.2678991553200349</v>
+            <v>5.288274452221124</v>
           </cell>
         </row>
         <row r="48">
@@ -2521,16 +2521,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D48">
-            <v>3.4659439999999999</v>
+            <v>3.4078780000000002</v>
           </cell>
           <cell r="E48">
-            <v>3.4094000000000002</v>
+            <v>3.3835999999999999</v>
           </cell>
           <cell r="H48">
-            <v>2.1527250236739723</v>
+            <v>2.0905442820853879</v>
           </cell>
           <cell r="I48">
-            <v>5.399671686893738</v>
+            <v>5.4764441289803667</v>
           </cell>
         </row>
         <row r="49">
@@ -2541,16 +2541,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D49">
-            <v>3.4491589999999999</v>
+            <v>3.4012039999999999</v>
           </cell>
           <cell r="E49">
-            <v>3.3881999999999999</v>
+            <v>3.3637999999999999</v>
           </cell>
           <cell r="H49">
-            <v>2.0634886953055758</v>
+            <v>2.0044135838226884</v>
           </cell>
           <cell r="I49">
-            <v>5.5633448664471485</v>
+            <v>5.6451176200973814</v>
           </cell>
         </row>
         <row r="50">
@@ -2561,16 +2561,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D50">
-            <v>3.4728509999999999</v>
+            <v>3.4319829999999998</v>
           </cell>
           <cell r="E50">
-            <v>3.407</v>
+            <v>3.3780000000000001</v>
           </cell>
           <cell r="H50">
-            <v>2.0235690432291458</v>
+            <v>1.9579774274063857</v>
           </cell>
           <cell r="I50">
-            <v>5.7362258228050829</v>
+            <v>5.8278935396693052</v>
           </cell>
         </row>
         <row r="51">
@@ -2581,16 +2581,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D51">
-            <v>3.5769839999999999</v>
+            <v>3.541833</v>
           </cell>
           <cell r="E51">
-            <v>3.4468000000000005</v>
+            <v>3.4246000000000003</v>
           </cell>
           <cell r="H51">
-            <v>1.9767646237439922</v>
+            <v>1.9252535336395231</v>
           </cell>
           <cell r="I51">
-            <v>6.0100378655595668</v>
+            <v>6.0916055756196759</v>
           </cell>
         </row>
         <row r="52">
@@ -2601,16 +2601,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D52">
-            <v>3.7328420000000002</v>
+            <v>3.7011829999999999</v>
           </cell>
           <cell r="E52">
-            <v>3.5528</v>
+            <v>3.5442</v>
           </cell>
           <cell r="H52">
-            <v>1.9664734616097805</v>
+            <v>1.9254608125178405</v>
           </cell>
           <cell r="I52">
-            <v>6.4187938898840526</v>
+            <v>6.5238168226202795</v>
           </cell>
         </row>
         <row r="53">
@@ -2621,16 +2621,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D53">
-            <v>3.7943210000000001</v>
+            <v>3.7680950000000002</v>
           </cell>
           <cell r="E53">
-            <v>3.6347999999999998</v>
+            <v>3.6261999999999999</v>
           </cell>
           <cell r="H53">
-            <v>1.9175227418083234</v>
+            <v>1.8655104341548852</v>
           </cell>
           <cell r="I53">
-            <v>6.8900205207165435</v>
+            <v>7.048648026435143</v>
           </cell>
         </row>
         <row r="54">
@@ -2641,16 +2641,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D54">
-            <v>3.8092220000000001</v>
+            <v>3.7978770000000002</v>
           </cell>
           <cell r="E54">
-            <v>3.5902000000000003</v>
+            <v>3.5905999999999998</v>
           </cell>
           <cell r="H54">
-            <v>1.7848346024218833</v>
+            <v>1.7458427445629714</v>
           </cell>
           <cell r="I54">
-            <v>7.2216977542400258</v>
+            <v>7.3846332381026061</v>
           </cell>
         </row>
         <row r="55">
@@ -2661,16 +2661,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D55">
-            <v>3.7772779999999999</v>
+            <v>3.7623609999999998</v>
           </cell>
           <cell r="E55">
-            <v>3.4912000000000001</v>
+            <v>3.4974000000000003</v>
           </cell>
           <cell r="H55">
-            <v>1.6647938205738579</v>
+            <v>1.7410154541384768</v>
           </cell>
           <cell r="I55">
-            <v>7.3213134800071558</v>
+            <v>7.0256738565556178</v>
           </cell>
         </row>
         <row r="56">
@@ -2681,16 +2681,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D56">
-            <v>3.744936</v>
+            <v>3.7322829999999998</v>
           </cell>
           <cell r="E56">
-            <v>2.9327999999999999</v>
+            <v>2.9485999999999999</v>
           </cell>
           <cell r="H56">
-            <v>1.6838287406862913</v>
+            <v>1.6770310309189105</v>
           </cell>
           <cell r="I56">
-            <v>5.1081892309869303</v>
+            <v>5.1843059548135413</v>
           </cell>
         </row>
         <row r="57">
@@ -2701,16 +2701,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D57">
-            <v>3.685594</v>
+            <v>3.659484</v>
           </cell>
           <cell r="E57">
-            <v>2.8723999999999998</v>
+            <v>2.8917999999999999</v>
           </cell>
           <cell r="H57">
-            <v>1.6745804092042156</v>
+            <v>1.6589248329101196</v>
           </cell>
           <cell r="I57">
-            <v>4.9270143820211301</v>
+            <v>5.0409199224116259</v>
           </cell>
         </row>
         <row r="58">
@@ -2721,16 +2721,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D58">
-            <v>3.687252</v>
+            <v>3.6556410000000001</v>
           </cell>
           <cell r="E58">
-            <v>2.8902000000000001</v>
+            <v>2.9068000000000001</v>
           </cell>
           <cell r="H58">
-            <v>1.6679241272904681</v>
+            <v>1.6534634745021979</v>
           </cell>
           <cell r="I58">
-            <v>5.0081750742282329</v>
+            <v>5.110174110464615</v>
           </cell>
         </row>
         <row r="59">
@@ -2741,16 +2741,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D59">
-            <v>3.6848269999999999</v>
+            <v>3.6506789999999998</v>
           </cell>
           <cell r="E59">
-            <v>2.9095999999999997</v>
+            <v>2.9247999999999998</v>
           </cell>
           <cell r="H59">
-            <v>1.661698412810682</v>
+            <v>1.6484147575634835</v>
           </cell>
           <cell r="I59">
-            <v>5.0946502053164728</v>
+            <v>5.189504037590825</v>
           </cell>
         </row>
         <row r="60">
@@ -2761,16 +2761,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D60">
-            <v>3.6501950000000001</v>
+            <v>3.6112289999999998</v>
           </cell>
           <cell r="E60">
-            <v>2.9020000000000001</v>
+            <v>2.9217999999999997</v>
           </cell>
           <cell r="H60">
-            <v>1.6356675360442887</v>
+            <v>1.6242906302883657</v>
           </cell>
           <cell r="I60">
-            <v>5.1487260182267072</v>
+            <v>5.25578063482667</v>
           </cell>
         </row>
         <row r="61">
@@ -2781,16 +2781,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D61">
-            <v>3.6255799999999998</v>
+            <v>3.5828129999999998</v>
           </cell>
           <cell r="E61">
-            <v>2.8795999999999999</v>
+            <v>2.9005999999999998</v>
           </cell>
           <cell r="H61">
-            <v>1.595442218381236</v>
+            <v>1.5840907200641814</v>
           </cell>
           <cell r="I61">
-            <v>5.1973653852618416</v>
+            <v>5.3112364421016975</v>
           </cell>
         </row>
         <row r="62">
@@ -2801,16 +2801,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D62">
-            <v>3.641235</v>
+            <v>3.5963470000000002</v>
           </cell>
           <cell r="E62">
-            <v>2.8972000000000002</v>
+            <v>2.9156000000000004</v>
           </cell>
           <cell r="H62">
-            <v>1.5822474681502556</v>
+            <v>1.5710866708515947</v>
           </cell>
           <cell r="I62">
-            <v>5.3049652528835018</v>
+            <v>5.4107284580246962</v>
           </cell>
         </row>
         <row r="63">
@@ -2821,16 +2821,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D63">
-            <v>3.7387739999999998</v>
+            <v>3.6935959999999999</v>
           </cell>
           <cell r="E63">
-            <v>2.9421999999999997</v>
+            <v>2.9585999999999997</v>
           </cell>
           <cell r="H63">
-            <v>1.5964963764580855</v>
+            <v>1.5742290598151498</v>
           </cell>
           <cell r="I63">
-            <v>5.4222113921767914</v>
+            <v>5.5603813850494133</v>
           </cell>
         </row>
         <row r="64">
@@ -2841,16 +2841,16 @@
             <v>#N/A</v>
           </cell>
           <cell r="D64">
-            <v>3.8897529999999998</v>
+            <v>3.8444530000000001</v>
           </cell>
           <cell r="E64">
-            <v>3.0684</v>
+            <v>3.0924</v>
           </cell>
           <cell r="H64">
-            <v>1.6581785048867819</v>
+            <v>1.6477405276966748</v>
           </cell>
           <cell r="I64">
-            <v>5.6779644243686835</v>
+            <v>5.8036672639033355</v>
           </cell>
         </row>
         <row r="85">
@@ -3665,8 +3665,8 @@
       <c r="C40" s="19">
         <v>3.5910000000000002</v>
       </c>
-      <c r="D40" s="19">
-        <v>3.5910000000000002</v>
+      <c r="D40" s="19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E40" s="19" t="e">
         <v>#N/A</v>
@@ -3698,11 +3698,11 @@
       <c r="B41" s="15">
         <v>42736</v>
       </c>
-      <c r="C41" s="19" t="e">
-        <v>#N/A</v>
+      <c r="C41" s="19">
+        <v>3.3039999999999998</v>
       </c>
       <c r="D41" s="19">
-        <v>3.6</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="E41" s="19" t="e">
         <v>#N/A</v>
@@ -3738,32 +3738,32 @@
         <v>#N/A</v>
       </c>
       <c r="D42" s="19">
-        <v>3.6965870000000001</v>
-      </c>
-      <c r="E42" s="19">
-        <v>3.4786000000000001</v>
-      </c>
-      <c r="F42" s="20">
-        <v>0.49133768</v>
-      </c>
-      <c r="G42" s="21">
-        <v>14</v>
-      </c>
-      <c r="H42" s="19">
+        <v>3.396442</v>
+      </c>
+      <c r="E42" s="19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F42" s="20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G42" s="21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H42" s="19" t="e">
         <f t="shared" si="0"/>
-        <v>2.7722178214455853</v>
-      </c>
-      <c r="I42" s="19">
+        <v>#N/A</v>
+      </c>
+      <c r="I42" s="19" t="e">
         <f t="shared" si="1"/>
-        <v>4.3649737283955776</v>
-      </c>
-      <c r="J42" s="19">
+        <v>#N/A</v>
+      </c>
+      <c r="J42" s="19" t="e">
         <f t="shared" si="2"/>
-        <v>2.7722178212979198</v>
-      </c>
-      <c r="K42" s="19">
+        <v>#N/A</v>
+      </c>
+      <c r="K42" s="19" t="e">
         <f t="shared" si="3"/>
-        <v>4.3649737286280823</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
@@ -3774,32 +3774,32 @@
         <v>#N/A</v>
       </c>
       <c r="D43" s="19">
-        <v>3.6457199999999998</v>
+        <v>3.391829</v>
       </c>
       <c r="E43" s="19">
-        <v>3.4544000000000006</v>
+        <v>3.2124000000000001</v>
       </c>
       <c r="F43" s="20">
-        <v>0.46461315999999997</v>
+        <v>0.43771365000000007</v>
       </c>
       <c r="G43" s="21">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H43" s="19">
         <f t="shared" si="0"/>
-        <v>2.4846151161581025</v>
+        <v>2.6242854448383217</v>
       </c>
       <c r="I43" s="19">
         <f t="shared" si="1"/>
-        <v>4.8027073820799711</v>
+        <v>3.9323137581307468</v>
       </c>
       <c r="J43" s="19">
         <f t="shared" si="2"/>
-        <v>2.4846151159659637</v>
+        <v>2.6242854447137924</v>
       </c>
       <c r="K43" s="19">
         <f t="shared" si="3"/>
-        <v>4.8027073824513717</v>
+        <v>3.932313758317346</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -3810,32 +3810,32 @@
         <v>#N/A</v>
       </c>
       <c r="D44" s="19">
-        <v>3.5478930000000002</v>
+        <v>3.3921079999999999</v>
       </c>
       <c r="E44" s="19">
-        <v>3.3777999999999997</v>
+        <v>3.2549999999999999</v>
       </c>
       <c r="F44" s="20">
-        <v>0.37778945999999997</v>
+        <v>0.40170345000000002</v>
       </c>
       <c r="G44" s="21">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H44" s="19">
         <f t="shared" si="0"/>
-        <v>2.3900205333838089</v>
+        <v>2.4172043947401085</v>
       </c>
       <c r="I44" s="19">
         <f t="shared" si="1"/>
-        <v>4.7738220992797489</v>
+        <v>4.3831729840699509</v>
       </c>
       <c r="J44" s="19">
         <f t="shared" si="2"/>
-        <v>2.3900205331897917</v>
+        <v>2.4172043945713062</v>
       </c>
       <c r="K44" s="19">
         <f t="shared" si="3"/>
-        <v>4.7738220996672771</v>
+        <v>4.383172984376043</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -3846,32 +3846,32 @@
         <v>#N/A</v>
       </c>
       <c r="D45" s="19">
-        <v>3.4823580000000001</v>
+        <v>3.3653439999999999</v>
       </c>
       <c r="E45" s="19">
-        <v>3.3649999999999998</v>
+        <v>3.2920000000000003</v>
       </c>
       <c r="F45" s="20">
-        <v>0.34596389333333333</v>
+        <v>0.38276832499999996</v>
       </c>
       <c r="G45" s="21">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H45" s="19">
         <f t="shared" si="0"/>
-        <v>2.3245041725905304</v>
+        <v>2.3113733981364666</v>
       </c>
       <c r="I45" s="19">
         <f t="shared" si="1"/>
-        <v>4.8712431380068866</v>
+        <v>4.688668654202516</v>
       </c>
       <c r="J45" s="19">
         <f t="shared" si="2"/>
-        <v>2.3245041723887412</v>
+        <v>2.3113733979446409</v>
       </c>
       <c r="K45" s="19">
         <f t="shared" si="3"/>
-        <v>4.8712431384297581</v>
+        <v>4.6886686545916385</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -3882,32 +3882,32 @@
         <v>#N/A</v>
       </c>
       <c r="D46" s="19">
-        <v>3.4858319999999998</v>
+        <v>3.3925429999999999</v>
       </c>
       <c r="E46" s="19">
-        <v>3.3883999999999999</v>
+        <v>3.339</v>
       </c>
       <c r="F46" s="20">
-        <v>0.33370511000000003</v>
+        <v>0.37361782500000001</v>
       </c>
       <c r="G46" s="21">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H46" s="19">
         <f t="shared" si="0"/>
-        <v>2.2582096620265211</v>
+        <v>2.2216935826733586</v>
       </c>
       <c r="I46" s="19">
         <f t="shared" si="1"/>
-        <v>5.0842287822365897</v>
+        <v>5.018208220498404</v>
       </c>
       <c r="J46" s="19">
         <f t="shared" si="2"/>
-        <v>2.2582096618114802</v>
+        <v>2.2216935824609534</v>
       </c>
       <c r="K46" s="19">
         <f t="shared" si="3"/>
-        <v>5.0842287827207411</v>
+        <v>5.0182082209781704</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -3918,32 +3918,32 @@
         <v>#N/A</v>
       </c>
       <c r="D47" s="19">
-        <v>3.4910640000000002</v>
+        <v>3.4185180000000002</v>
       </c>
       <c r="E47" s="19">
-        <v>3.4164000000000003</v>
+        <v>3.38</v>
       </c>
       <c r="F47" s="20">
-        <v>0.32152222666666663</v>
+        <v>0.36254178214285709</v>
       </c>
       <c r="G47" s="21">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H47" s="19">
         <f t="shared" si="0"/>
-        <v>2.2156439627764515</v>
+        <v>2.1603266061960245</v>
       </c>
       <c r="I47" s="19">
         <f t="shared" si="1"/>
-        <v>5.2678991553200349</v>
+        <v>5.288274452221124</v>
       </c>
       <c r="J47" s="19">
         <f t="shared" si="2"/>
-        <v>2.2156439625512911</v>
+        <v>2.160326605969098</v>
       </c>
       <c r="K47" s="19">
         <f t="shared" si="3"/>
-        <v>5.2678991558553738</v>
+        <v>5.2882744527766175</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -3954,32 +3954,32 @@
         <v>#N/A</v>
       </c>
       <c r="D48" s="19">
-        <v>3.4659439999999999</v>
+        <v>3.4078780000000002</v>
       </c>
       <c r="E48" s="19">
-        <v>3.4094000000000002</v>
+        <v>3.3835999999999999</v>
       </c>
       <c r="F48" s="20">
-        <v>0.31587515999999999</v>
+        <v>0.3560181</v>
       </c>
       <c r="G48" s="21">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="H48" s="19">
         <f t="shared" si="0"/>
-        <v>2.1527250236739723</v>
+        <v>2.0905442820853879</v>
       </c>
       <c r="I48" s="19">
         <f t="shared" si="1"/>
-        <v>5.399671686893738</v>
+        <v>5.4764441289803667</v>
       </c>
       <c r="J48" s="19">
         <f t="shared" si="2"/>
-        <v>2.1527250234416888</v>
+        <v>2.0905442818491613</v>
       </c>
       <c r="K48" s="19">
         <f t="shared" si="3"/>
-        <v>5.3996716874763742</v>
+        <v>5.4764441295991926</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -3990,32 +3990,32 @@
         <v>#N/A</v>
       </c>
       <c r="D49" s="19">
-        <v>3.4491589999999999</v>
+        <v>3.4012039999999999</v>
       </c>
       <c r="E49" s="19">
-        <v>3.3881999999999999</v>
+        <v>3.3637999999999999</v>
       </c>
       <c r="F49" s="20">
-        <v>0.31556542000000004</v>
+        <v>0.35065407500000001</v>
       </c>
       <c r="G49" s="21">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="H49" s="19">
         <f t="shared" si="0"/>
-        <v>2.0634886953055758</v>
+        <v>2.0044135838226884</v>
       </c>
       <c r="I49" s="19">
         <f t="shared" si="1"/>
-        <v>5.5633448664471485</v>
+        <v>5.6451176200973814</v>
       </c>
       <c r="J49" s="19">
         <f t="shared" si="2"/>
-        <v>2.0634886950654407</v>
+        <v>2.0044135835791645</v>
       </c>
       <c r="K49" s="19">
         <f t="shared" si="3"/>
-        <v>5.5633448670945738</v>
+        <v>5.6451176207832292</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -4026,32 +4026,32 @@
         <v>#N/A</v>
       </c>
       <c r="D50" s="19">
-        <v>3.4728509999999999</v>
+        <v>3.4319829999999998</v>
       </c>
       <c r="E50" s="19">
-        <v>3.407</v>
+        <v>3.3780000000000001</v>
       </c>
       <c r="F50" s="20">
-        <v>0.31277255999999998</v>
+        <v>0.34598004999999998</v>
       </c>
       <c r="G50" s="21">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="H50" s="19">
         <f t="shared" si="0"/>
-        <v>2.0235690432291458</v>
+        <v>1.9579774274063857</v>
       </c>
       <c r="I50" s="19">
         <f t="shared" si="1"/>
-        <v>5.7362258228050829</v>
+        <v>5.8278935396693052</v>
       </c>
       <c r="J50" s="19">
         <f t="shared" si="2"/>
-        <v>2.0235690429817517</v>
+        <v>1.9579774271557981</v>
       </c>
       <c r="K50" s="19">
         <f t="shared" si="3"/>
-        <v>5.7362258235063734</v>
+        <v>5.8278935404151753</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -4062,32 +4062,32 @@
         <v>#N/A</v>
       </c>
       <c r="D51" s="19">
-        <v>3.5769839999999999</v>
+        <v>3.541833</v>
       </c>
       <c r="E51" s="19">
-        <v>3.4468000000000005</v>
+        <v>3.4246000000000003</v>
       </c>
       <c r="F51" s="20">
-        <v>0.31605820333333334</v>
+        <v>0.34388300714285713</v>
       </c>
       <c r="G51" s="21">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="H51" s="19">
         <f t="shared" si="0"/>
-        <v>1.9767646237439922</v>
+        <v>1.9252535336395231</v>
       </c>
       <c r="I51" s="19">
         <f t="shared" si="1"/>
-        <v>6.0100378655595668</v>
+        <v>6.0916055756196759</v>
       </c>
       <c r="J51" s="19">
         <f t="shared" si="2"/>
-        <v>1.9767646234860772</v>
+        <v>1.925253533379319</v>
       </c>
       <c r="K51" s="19">
         <f t="shared" si="3"/>
-        <v>6.0100378663437173</v>
+        <v>6.0916055764429755</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -4098,32 +4098,32 @@
         <v>#N/A</v>
       </c>
       <c r="D52" s="19">
-        <v>3.7328420000000002</v>
+        <v>3.7011829999999999</v>
       </c>
       <c r="E52" s="19">
-        <v>3.5528</v>
+        <v>3.5442</v>
       </c>
       <c r="F52" s="20">
-        <v>0.32081173333333335</v>
+        <v>0.34599647738095235</v>
       </c>
       <c r="G52" s="21">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="H52" s="19">
         <f t="shared" si="0"/>
-        <v>1.9664734616097805</v>
+        <v>1.9254608125178405</v>
       </c>
       <c r="I52" s="19">
         <f t="shared" si="1"/>
-        <v>6.4187938898840526</v>
+        <v>6.5238168226202795</v>
       </c>
       <c r="J52" s="19">
         <f t="shared" si="2"/>
-        <v>1.9664734613368209</v>
+        <v>1.9254608122421459</v>
       </c>
       <c r="K52" s="19">
         <f t="shared" si="3"/>
-        <v>6.4187938907750226</v>
+        <v>6.5238168235543839</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -4134,32 +4134,32 @@
         <v>#N/A</v>
       </c>
       <c r="D53" s="19">
-        <v>3.7943210000000001</v>
+        <v>3.7680950000000002</v>
       </c>
       <c r="E53" s="19">
-        <v>3.6347999999999998</v>
+        <v>3.6261999999999999</v>
       </c>
       <c r="F53" s="20">
-        <v>0.3322792</v>
+        <v>0.35968435333333326</v>
       </c>
       <c r="G53" s="21">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="H53" s="19">
         <f t="shared" si="0"/>
-        <v>1.9175227418083234</v>
+        <v>1.8655104341548852</v>
       </c>
       <c r="I53" s="19">
         <f t="shared" si="1"/>
-        <v>6.8900205207165435</v>
+        <v>7.048648026435143</v>
       </c>
       <c r="J53" s="19">
         <f t="shared" si="2"/>
-        <v>1.9175227415205482</v>
+        <v>1.8655104338639139</v>
       </c>
       <c r="K53" s="19">
         <f t="shared" si="3"/>
-        <v>6.8900205217505741</v>
+        <v>7.0486480275345498</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -4170,32 +4170,32 @@
         <v>#N/A</v>
       </c>
       <c r="D54" s="19">
-        <v>3.8092220000000001</v>
+        <v>3.7978770000000002</v>
       </c>
       <c r="E54" s="19">
-        <v>3.5902000000000003</v>
+        <v>3.5905999999999998</v>
       </c>
       <c r="F54" s="20">
-        <v>0.34838076666666667</v>
+        <v>0.37312448666666664</v>
       </c>
       <c r="G54" s="21">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H54" s="19">
         <f t="shared" si="0"/>
-        <v>1.7848346024218833</v>
+        <v>1.7458427445629714</v>
       </c>
       <c r="I54" s="19">
         <f t="shared" si="1"/>
-        <v>7.2216977542400258</v>
+        <v>7.3846332381026061</v>
       </c>
       <c r="J54" s="19">
         <f t="shared" si="2"/>
-        <v>1.7848346021291577</v>
+        <v>1.7458427442675455</v>
       </c>
       <c r="K54" s="19">
         <f t="shared" si="3"/>
-        <v>7.2216977554244339</v>
+        <v>7.3846332393522127</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -4206,32 +4206,32 @@
         <v>#N/A</v>
       </c>
       <c r="D55" s="19">
-        <v>3.7772779999999999</v>
+        <v>3.7623609999999998</v>
       </c>
       <c r="E55" s="19">
-        <v>3.4912000000000001</v>
+        <v>3.4974000000000003</v>
       </c>
       <c r="F55" s="20">
-        <v>0.35654140000000006</v>
+        <v>0.34771735476190474</v>
       </c>
       <c r="G55" s="21">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="H55" s="19">
         <f t="shared" si="0"/>
-        <v>1.6647938205738579</v>
+        <v>1.7410154541384768</v>
       </c>
       <c r="I55" s="19">
         <f t="shared" si="1"/>
-        <v>7.3213134800071558</v>
+        <v>7.0256738565556178</v>
       </c>
       <c r="J55" s="19">
         <f t="shared" si="2"/>
-        <v>1.6647938202845434</v>
+        <v>1.7410154538534812</v>
       </c>
       <c r="K55" s="19">
         <f t="shared" si="3"/>
-        <v>7.3213134812794838</v>
+        <v>7.0256738577056845</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -4242,32 +4242,32 @@
         <v>#N/A</v>
       </c>
       <c r="D56" s="19">
-        <v>3.744936</v>
+        <v>3.7322829999999998</v>
       </c>
       <c r="E56" s="19">
-        <v>2.9327999999999999</v>
+        <v>2.9485999999999999</v>
       </c>
       <c r="F56" s="20">
-        <v>0.25818780000000002</v>
+        <v>0.27121099285714279</v>
       </c>
       <c r="G56" s="21">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="H56" s="19">
         <f t="shared" si="0"/>
-        <v>1.6838287406862913</v>
+        <v>1.6770310309189105</v>
       </c>
       <c r="I56" s="19">
         <f t="shared" si="1"/>
-        <v>5.1081892309869303</v>
+        <v>5.1843059548135413</v>
       </c>
       <c r="J56" s="19">
         <f t="shared" si="2"/>
-        <v>1.68382874046703</v>
+        <v>1.6770310306968279</v>
       </c>
       <c r="K56" s="19">
         <f t="shared" si="3"/>
-        <v>5.1081892316520987</v>
+        <v>5.1843059555000783</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -4278,32 +4278,32 @@
         <v>#N/A</v>
       </c>
       <c r="D57" s="19">
-        <v>3.685594</v>
+        <v>3.659484</v>
       </c>
       <c r="E57" s="19">
-        <v>2.8723999999999998</v>
+        <v>2.8917999999999999</v>
       </c>
       <c r="F57" s="20">
-        <v>0.24242119999999998</v>
+        <v>0.25729967857142855</v>
       </c>
       <c r="G57" s="21">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="H57" s="19">
         <f t="shared" si="0"/>
-        <v>1.6745804092042156</v>
+        <v>1.6589248329101196</v>
       </c>
       <c r="I57" s="19">
         <f t="shared" si="1"/>
-        <v>4.9270143820211301</v>
+        <v>5.0409199224116259</v>
       </c>
       <c r="J57" s="19">
         <f t="shared" si="2"/>
-        <v>1.6745804089921719</v>
+        <v>1.6589248326937813</v>
       </c>
       <c r="K57" s="19">
         <f t="shared" si="3"/>
-        <v>4.9270143826450132</v>
+        <v>5.0409199230690058</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -4314,32 +4314,32 @@
         <v>#N/A</v>
       </c>
       <c r="D58" s="19">
-        <v>3.687252</v>
+        <v>3.6556410000000001</v>
       </c>
       <c r="E58" s="19">
-        <v>2.8902000000000001</v>
+        <v>2.9068000000000001</v>
       </c>
       <c r="F58" s="20">
-        <v>0.23902836</v>
+        <v>0.2523094107142857</v>
       </c>
       <c r="G58" s="21">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="H58" s="19">
         <f t="shared" si="0"/>
-        <v>1.6679241272904681</v>
+        <v>1.6534634745021979</v>
       </c>
       <c r="I58" s="19">
         <f t="shared" si="1"/>
-        <v>5.0081750742282329</v>
+        <v>5.110174110464615</v>
       </c>
       <c r="J58" s="19">
         <f t="shared" si="2"/>
-        <v>1.6679241270752903</v>
+        <v>1.6534634742832848</v>
       </c>
       <c r="K58" s="19">
         <f t="shared" si="3"/>
-        <v>5.0081750748743339</v>
+        <v>5.1101741111411849</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -4350,32 +4350,32 @@
         <v>#N/A</v>
       </c>
       <c r="D59" s="19">
-        <v>3.6848269999999999</v>
+        <v>3.6506789999999998</v>
       </c>
       <c r="E59" s="19">
-        <v>2.9095999999999997</v>
+        <v>2.9247999999999998</v>
       </c>
       <c r="F59" s="20">
-        <v>0.23651152</v>
+        <v>0.24860294285714288</v>
       </c>
       <c r="G59" s="21">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="H59" s="19">
         <f t="shared" si="0"/>
-        <v>1.661698412810682</v>
+        <v>1.6484147575634835</v>
       </c>
       <c r="I59" s="19">
         <f t="shared" si="1"/>
-        <v>5.0946502053164728</v>
+        <v>5.189504037590825</v>
       </c>
       <c r="J59" s="19">
         <f t="shared" si="2"/>
-        <v>1.6616984125922403</v>
+        <v>1.6484147573416681</v>
       </c>
       <c r="K59" s="19">
         <f t="shared" si="3"/>
-        <v>5.0946502059862002</v>
+        <v>5.1895040382891402</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -4386,32 +4386,32 @@
         <v>#N/A</v>
       </c>
       <c r="D60" s="19">
-        <v>3.6501950000000001</v>
+        <v>3.6112289999999998</v>
       </c>
       <c r="E60" s="19">
-        <v>2.9020000000000001</v>
+        <v>2.9217999999999997</v>
       </c>
       <c r="F60" s="20">
-        <v>0.23544884000000002</v>
+        <v>0.24722057499999997</v>
       </c>
       <c r="G60" s="21">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="H60" s="19">
         <f t="shared" si="0"/>
-        <v>1.6356675360442887</v>
+        <v>1.6242906302883657</v>
       </c>
       <c r="I60" s="19">
         <f t="shared" si="1"/>
-        <v>5.1487260182267072</v>
+        <v>5.25578063482667</v>
       </c>
       <c r="J60" s="19">
         <f t="shared" si="2"/>
-        <v>1.6356675358242128</v>
+        <v>1.6242906300645679</v>
       </c>
       <c r="K60" s="19">
         <f t="shared" si="3"/>
-        <v>5.1487260189194597</v>
+        <v>5.2557806355508214</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -4422,32 +4422,32 @@
         <v>#N/A</v>
       </c>
       <c r="D61" s="19">
-        <v>3.6255799999999998</v>
+        <v>3.5828129999999998</v>
       </c>
       <c r="E61" s="19">
-        <v>2.8795999999999999</v>
+        <v>2.9005999999999998</v>
       </c>
       <c r="F61" s="20">
-        <v>0.23562632</v>
+        <v>0.24714085714285713</v>
       </c>
       <c r="G61" s="21">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="H61" s="19">
         <f t="shared" si="0"/>
-        <v>1.595442218381236</v>
+        <v>1.5840907200641814</v>
       </c>
       <c r="I61" s="19">
         <f t="shared" si="1"/>
-        <v>5.1973653852618416</v>
+        <v>5.3112364421016975</v>
       </c>
       <c r="J61" s="19">
         <f t="shared" si="2"/>
-        <v>1.5954422181601504</v>
+        <v>1.5840907198393135</v>
       </c>
       <c r="K61" s="19">
         <f t="shared" si="3"/>
-        <v>5.1973653859820566</v>
+        <v>5.3112364428556491</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
@@ -4458,32 +4458,32 @@
         <v>#N/A</v>
       </c>
       <c r="D62" s="19">
-        <v>3.641235</v>
+        <v>3.5963470000000002</v>
       </c>
       <c r="E62" s="19">
-        <v>2.8972000000000002</v>
+        <v>2.9156000000000004</v>
       </c>
       <c r="F62" s="20">
-        <v>0.23599132000000003</v>
+        <v>0.24672235952380955</v>
       </c>
       <c r="G62" s="21">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="H62" s="19">
         <f t="shared" si="0"/>
-        <v>1.5822474681502556</v>
+        <v>1.5710866708515947</v>
       </c>
       <c r="I62" s="19">
         <f t="shared" si="1"/>
-        <v>5.3049652528835018</v>
+        <v>5.4107284580246962</v>
       </c>
       <c r="J62" s="19">
         <f t="shared" si="2"/>
-        <v>1.5822474679256524</v>
+        <v>1.5710866706236317</v>
       </c>
       <c r="K62" s="19">
         <f t="shared" si="3"/>
-        <v>5.3049652536365519</v>
+        <v>5.4107284588097873</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
@@ -4494,32 +4494,32 @@
         <v>#N/A</v>
       </c>
       <c r="D63" s="19">
-        <v>3.7387739999999998</v>
+        <v>3.6935959999999999</v>
       </c>
       <c r="E63" s="19">
-        <v>2.9421999999999997</v>
+        <v>2.9585999999999997</v>
       </c>
       <c r="F63" s="20">
-        <v>0.23264313999999997</v>
+        <v>0.24530286190476192</v>
       </c>
       <c r="G63" s="21">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="H63" s="19">
         <f t="shared" si="0"/>
-        <v>1.5964963764580855</v>
+        <v>1.5742290598151498</v>
       </c>
       <c r="I63" s="19">
         <f t="shared" si="1"/>
-        <v>5.4222113921767914</v>
+        <v>5.5603813850494133</v>
       </c>
       <c r="J63" s="19">
         <f t="shared" si="2"/>
-        <v>1.5964963762290438</v>
+        <v>1.5742290595820605</v>
       </c>
       <c r="K63" s="19">
         <f t="shared" si="3"/>
-        <v>5.4222113929546891</v>
+        <v>5.5603813858727147</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
@@ -4530,32 +4530,32 @@
         <v>#N/A</v>
       </c>
       <c r="D64" s="23">
-        <v>3.8897529999999998</v>
+        <v>3.8444530000000001</v>
       </c>
       <c r="E64" s="23">
-        <v>3.0684</v>
+        <v>3.0924</v>
       </c>
       <c r="F64" s="24">
-        <v>0.22919486666666664</v>
+        <v>0.23930364761904763</v>
       </c>
       <c r="G64" s="25">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="H64" s="23">
         <f t="shared" si="0"/>
-        <v>1.6581785048867819</v>
+        <v>1.6477405276966748</v>
       </c>
       <c r="I64" s="23">
         <f t="shared" si="1"/>
-        <v>5.6779644243686835</v>
+        <v>5.8036672639033355</v>
       </c>
       <c r="J64" s="19">
         <f t="shared" si="2"/>
-        <v>1.6581785046472994</v>
+        <v>1.6477405274532457</v>
       </c>
       <c r="K64" s="19">
         <f t="shared" si="3"/>
-        <v>5.6779644251887227</v>
+        <v>5.8036672647607412</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
